--- a/biology/Zoologie/Armadillo_(genre)/Armadillo_(genre).xlsx
+++ b/biology/Zoologie/Armadillo_(genre)/Armadillo_(genre).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Armadillo est un genre d'isopodes de la famille des Armadillidae[1]. Il a une répartition cosmopolite[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Armadillo est un genre d'isopodes de la famille des Armadillidae. Il a une répartition cosmopolite.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Liste des espèces</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon GBIF       (5 août 2023)[1] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon GBIF       (5 août 2023) :
 Armadillo affinis (Dana, 1854)
 Armadillo albipes Dollfus, 1898
 Armadillo albomarginatus Dollfus, 1892
@@ -604,10 +618,12 @@
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Le nom valide complet (avec auteur) de ce taxon est Armadillo Latreille, 1802[1].
-Armadillo a pour synonymes[1] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Le nom valide complet (avec auteur) de ce taxon est Armadillo Latreille, 1802.
+Armadillo a pour synonymes :
 Orthonus Miers, 1878
 Pentheus C.Koch, 1841</t>
         </is>
